--- a/label_sample.xlsx
+++ b/label_sample.xlsx
@@ -28,7 +28,7 @@
     <t>1p/19q codeletion</t>
   </si>
   <si>
-    <t>WHO Grade</t>
+    <t>Tumor Grade</t>
   </si>
   <si>
     <t>Sex</t>
